--- a/rekap data uang kas kecil - asrama terbaru.xlsx
+++ b/rekap data uang kas kecil - asrama terbaru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CF9057-190D-4EAD-9016-B946FC69FBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830D6CF-BA84-49E4-B075-AD6D4575CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -359,9 +359,6 @@
     <t>uang beli galon aqua (7 galon)</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>uang beli telur 4 kg</t>
   </si>
   <si>
@@ -378,6 +375,18 @@
   </si>
   <si>
     <t>uang bensin motor pertalite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uang safe </t>
+  </si>
+  <si>
+    <t>uang beli bensin asrama</t>
+  </si>
+  <si>
+    <t>uang beli galon aqua 10 galon</t>
+  </si>
+  <si>
+    <t>uang yofandi</t>
   </si>
 </sst>
 </file>
@@ -536,6 +545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,9 +569,6 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,14 +901,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -910,12 +919,12 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -926,12 +935,12 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -942,12 +951,12 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -958,14 +967,14 @@
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -976,12 +985,12 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -2244,41 +2253,41 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24">
+      <c r="B60" s="26"/>
+      <c r="C60" s="27">
         <f>SUM(C9:C59)</f>
         <v>2100000</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="27">
         <f>SUM(D9:D59)</f>
         <v>2118600</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="27">
         <v>-18600</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -2343,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,56 +2371,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -2509,7 +2518,7 @@
         <v>83000</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11:E71" si="1">E10+C11-D11</f>
+        <f t="shared" ref="E11:E74" si="1">E10+C11-D11</f>
         <v>198400</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -3046,7 +3055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3071,7 +3080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3096,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3121,7 +3130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <f>ROW(A28)</f>
         <v>28</v>
@@ -3146,7 +3155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3171,7 +3180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3196,7 +3205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3221,7 +3230,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3245,11 +3254,8 @@
       <c r="G40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="K40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3274,7 +3280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3299,7 +3305,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3324,257 +3330,257 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="21">
         <v>44515</v>
       </c>
-      <c r="C44" s="29">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29">
+      <c r="C44" s="22">
+        <v>0</v>
+      </c>
+      <c r="D44" s="22">
         <v>17500</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="22">
         <f t="shared" si="1"/>
         <v>-189800</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="21">
         <v>44515</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="22">
         <v>500000</v>
       </c>
-      <c r="D45" s="29">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29">
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
         <f t="shared" si="1"/>
         <v>310200</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="21">
         <v>44515</v>
       </c>
-      <c r="C46" s="29">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29">
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
         <v>250000</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="22">
         <f t="shared" si="1"/>
         <v>60200</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="21">
         <v>44515</v>
       </c>
-      <c r="C47" s="29">
-        <v>0</v>
-      </c>
-      <c r="D47" s="29">
+      <c r="C47" s="22">
+        <v>0</v>
+      </c>
+      <c r="D47" s="22">
         <v>59000</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="22">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="21">
         <v>44515</v>
       </c>
-      <c r="C48" s="29">
-        <v>0</v>
-      </c>
-      <c r="D48" s="29">
+      <c r="C48" s="22">
+        <v>0</v>
+      </c>
+      <c r="D48" s="22">
         <v>240000</v>
       </c>
-      <c r="E48" s="29">
+      <c r="E48" s="22">
         <f t="shared" si="1"/>
         <v>-238800</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="21">
         <v>44515</v>
       </c>
-      <c r="C49" s="29">
-        <v>0</v>
-      </c>
-      <c r="D49" s="29">
+      <c r="C49" s="22">
+        <v>0</v>
+      </c>
+      <c r="D49" s="22">
         <v>37000</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="22">
         <f t="shared" si="1"/>
         <v>-275800</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="27" t="s">
+      <c r="G49" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="21">
         <v>44516</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="22">
         <v>100000</v>
       </c>
-      <c r="D50" s="29">
-        <v>0</v>
-      </c>
-      <c r="E50" s="29">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="22">
         <f t="shared" si="1"/>
         <v>-175800</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="21">
         <v>44516</v>
       </c>
-      <c r="C51" s="29">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29">
+      <c r="C51" s="22">
+        <v>0</v>
+      </c>
+      <c r="D51" s="22">
         <v>2500</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="22">
         <f t="shared" si="1"/>
         <v>-178300</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G51" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="21">
         <v>44516</v>
       </c>
-      <c r="C52" s="29">
-        <v>0</v>
-      </c>
-      <c r="D52" s="29">
+      <c r="C52" s="22">
+        <v>0</v>
+      </c>
+      <c r="D52" s="22">
         <v>12500</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="22">
         <f t="shared" si="1"/>
         <v>-190800</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="21">
         <v>44516</v>
       </c>
-      <c r="C53" s="29">
-        <v>0</v>
-      </c>
-      <c r="D53" s="29">
+      <c r="C53" s="22">
+        <v>0</v>
+      </c>
+      <c r="D53" s="22">
         <v>10000</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="22">
         <f t="shared" si="1"/>
         <v>-200800</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3599,7 +3605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3618,13 +3624,13 @@
         <v>-196800</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3649,7 +3655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3674,7 +3680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3693,13 +3699,20 @@
         <v>-314800</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G58" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" s="6">
+        <f>D56+D61+D62</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3718,13 +3731,20 @@
         <v>-64800</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G59" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>116</v>
+      </c>
+      <c r="J59" s="6">
+        <f>245300-52500</f>
+        <v>192800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3743,13 +3763,13 @@
         <v>-107800</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G60" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3768,14 +3788,14 @@
         <v>-137300</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>64</v>
       </c>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3794,113 +3814,161 @@
         <v>-152300</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="18">
+        <v>44523</v>
+      </c>
       <c r="C63" s="19">
-        <v>0</v>
-      </c>
-      <c r="D63" s="19"/>
+        <v>70000</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0</v>
+      </c>
       <c r="E63" s="19">
         <f t="shared" si="1"/>
+        <v>-82300</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="18">
+        <v>44523</v>
+      </c>
+      <c r="C64" s="19">
+        <v>0</v>
+      </c>
+      <c r="D64" s="19">
+        <v>70000</v>
+      </c>
+      <c r="E64" s="19">
+        <f t="shared" si="1"/>
         <v>-152300</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="19">
-        <v>0</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19">
-        <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="18">
+        <v>44524</v>
+      </c>
       <c r="C65" s="19">
         <v>0</v>
       </c>
-      <c r="D65" s="19"/>
+      <c r="D65" s="19">
+        <v>83000</v>
+      </c>
       <c r="E65" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
+        <v>-235300</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="18">
+        <v>44525</v>
+      </c>
       <c r="C66" s="19">
-        <v>0</v>
-      </c>
-      <c r="D66" s="19"/>
+        <v>100000</v>
+      </c>
+      <c r="D66" s="19">
+        <v>0</v>
+      </c>
       <c r="E66" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
+        <v>-135300</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="18">
+        <v>44525</v>
+      </c>
       <c r="C67" s="19">
         <v>0</v>
       </c>
-      <c r="D67" s="19"/>
+      <c r="D67" s="19">
+        <v>100000</v>
+      </c>
       <c r="E67" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+        <v>-235300</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="18">
+        <v>44527</v>
+      </c>
       <c r="C68" s="19">
         <v>0</v>
       </c>
-      <c r="D68" s="19"/>
+      <c r="D68" s="19">
+        <v>10000</v>
+      </c>
       <c r="E68" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
-      </c>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+        <v>-245300</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
@@ -3914,7 +3982,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
+        <v>-245300</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
@@ -3931,7 +3999,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
+        <v>-245300</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
@@ -3948,26 +4016,38 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19">
         <f t="shared" si="1"/>
-        <v>-152300</v>
+        <v>-245300</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="E72" s="19">
+        <f t="shared" si="1"/>
+        <v>-245300</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
+      <c r="E73" s="19">
+        <f t="shared" si="1"/>
+        <v>-245300</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="19">
+        <f t="shared" si="1"/>
+        <v>-245300</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
+      <c r="E75" s="19">
+        <f t="shared" ref="E75" si="2">E74+C75-D75</f>
+        <v>-245300</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D76" s="6">

--- a/rekap data uang kas kecil - asrama terbaru.xlsx
+++ b/rekap data uang kas kecil - asrama terbaru.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yofandi Riki Winata\Documents\yofandi\rekap data - uang galon, parkir, bumbu asrama\uangasrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830D6CF-BA84-49E4-B075-AD6D4575CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27BF2AF-849E-4AAC-8416-45DE16EE60A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{C456B771-9DF8-4725-AC5F-E2624C050843}"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
     <sheet name="November" sheetId="2" r:id="rId2"/>
+    <sheet name="Desember" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Oktober!$A$8:$G$8</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="145">
   <si>
     <t>Kas Kecil - Asrama STTHF</t>
   </si>
@@ -387,16 +388,101 @@
   </si>
   <si>
     <t>uang yofandi</t>
+  </si>
+  <si>
+    <t>*Desember 2021</t>
+  </si>
+  <si>
+    <t>*dimulai tanggal 01 Desmber 2021</t>
+  </si>
+  <si>
+    <t>sisa saldo nota dari bulan November</t>
+  </si>
+  <si>
+    <t>uang masuk kas asrama tapi langsung dipakai</t>
+  </si>
+  <si>
+    <t>uang beli bensin avanza</t>
+  </si>
+  <si>
+    <t>uang beli santan kara</t>
+  </si>
+  <si>
+    <t>uang masuk kas asrama tapi langsung dipakai untuk beli bahan asrama di lotte mart</t>
+  </si>
+  <si>
+    <t>petrus sama yofandi</t>
+  </si>
+  <si>
+    <t>uang masuk ke bandara juanda</t>
+  </si>
+  <si>
+    <t>uang masuk ke ruko rich palace</t>
+  </si>
+  <si>
+    <t>uang masuk ke kas kecil asrama, uang diambil valen</t>
+  </si>
+  <si>
+    <t>valen sama yofandi</t>
+  </si>
+  <si>
+    <t>uang beli minyak masako ladaku</t>
+  </si>
+  <si>
+    <t>hosea sama saferius</t>
+  </si>
+  <si>
+    <t>uang ngambil cucian kak Yehuda (tapi inisialnya ditulis yudas)</t>
+  </si>
+  <si>
+    <t>uang beli bensin buat motor mio punya hfc kota</t>
+  </si>
+  <si>
+    <t>uang beli garam dapur</t>
+  </si>
+  <si>
+    <t>hosea sama yofandi</t>
+  </si>
+  <si>
+    <t>uang dari cece buat beli super pell minyak air soflent pentol</t>
+  </si>
+  <si>
+    <t>buat beli bensin avanza</t>
+  </si>
+  <si>
+    <t>uang beli obat pak handoko</t>
+  </si>
+  <si>
+    <t>yofandi sama saferius</t>
+  </si>
+  <si>
+    <t>uang beli makan pak handoko</t>
+  </si>
+  <si>
+    <t>uang karcis masuk ruko rungkut megah raya</t>
+  </si>
+  <si>
+    <t>jhonan</t>
+  </si>
+  <si>
+    <t>uang beli bahan-bahan asrama di lotte grosir</t>
+  </si>
+  <si>
+    <t>uang beli minyak goreng 2 L</t>
+  </si>
+  <si>
+    <t>uang beli gas elpiji 3 kilo 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_([$Rp-421]* #,##0.00_);_([$Rp-421]* \(#,##0.00\);_([$Rp-421]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -516,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +655,8 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2352,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDAE0A9-9D0C-4DE2-9702-0E943FFDF5A6}">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="D60" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2458,7 @@
     <col min="11" max="11" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2468,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2388,7 +2476,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2396,7 +2484,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -2404,23 +2492,23 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -4147,4 +4235,1345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C234F99-8B42-407C-8300-8DCA922A32B5}">
+  <dimension ref="A1:G94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="76.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="30">
+        <v>44531.438888888886</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-249300</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <f>C9-D9</f>
+        <v>-249300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="30">
+        <v>44531.438888888886</v>
+      </c>
+      <c r="C10" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>E9+C10-D10</f>
+        <v>250700</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="30">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" ref="E11:E74" si="0">E10+C11-D11</f>
+        <v>200700</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="30">
+        <v>44531.460416666669</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>150700</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="30">
+        <v>44531.582638888889</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>20500</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>130200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="30">
+        <v>44531.811805555553</v>
+      </c>
+      <c r="C14" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>490800</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>139400</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="30">
+        <v>44532.46875</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>56400</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
+        <v>44533.388888888891</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
+        <v>44533.374305555553</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="31">
+        <v>44533.459027777775</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>-3600</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="31">
+        <v>44533.75277777778</v>
+      </c>
+      <c r="C19" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>496400</v>
+      </c>
+      <c r="F19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="31">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>478400</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <v>44533.820138888892</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>468400</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>44534.883333333331</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>408400</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
+        <v>44534.614583333336</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>388400</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>44534.833333333336</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>288400</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C25" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>788400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>44535.508333333331</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>778400</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>44536.291666666664</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>769400</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="31">
+        <v>44537.486805555556</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>759400</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="31">
+        <v>44537.660983796297</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>659400</v>
+      </c>
+      <c r="F29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="31">
+        <v>44539.878472222219</v>
+      </c>
+      <c r="C30" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>192800</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>666600</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="31">
+        <v>44540.666666666664</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>656600</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <v>44539.660983796297</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>556600</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
+        <v>44540.479166666664</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>83000</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>473600</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="31">
+        <v>44541.670138888891</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>457600</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="31">
+        <v>44541.606956018521</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>447600</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="31">
+        <v>44541.87226851852</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>33000</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>414600</v>
+      </c>
+      <c r="F36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="31">
+        <v>44541.447511574072</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>394600</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
+        <v>44542.524340277778</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>294600</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>44542.404386574075</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>284600</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="31">
+        <v>44543.570833333331</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>90000</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>194600</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="31">
+        <v>44543.581944444442</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>179600</v>
+      </c>
+      <c r="F41" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <v>44545.875</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>176600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="31">
+        <v>44546.416666666664</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>173600</v>
+      </c>
+      <c r="F43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="31">
+        <v>44546.435879629629</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>73600</v>
+      </c>
+      <c r="F44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="31">
+        <v>44546.545497685183</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>63600</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="31">
+        <v>44547.502129629633</v>
+      </c>
+      <c r="C46" s="6">
+        <v>600000</v>
+      </c>
+      <c r="D46" s="6">
+        <v>494350</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>169250</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="31">
+        <v>44547.359027777777</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>39000</v>
+      </c>
+      <c r="E47" s="6">
+        <f t="shared" si="0"/>
+        <v>130250</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="31">
+        <v>44548.861145833333</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>30250</v>
+      </c>
+      <c r="F48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="31">
+        <v>44549.40902777778</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>20250</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="31">
+        <v>44551.404861111114</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6">
+        <f t="shared" si="0"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6">
+        <f t="shared" ref="E75:E94" si="1">E74+C75-D75</f>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6">
+        <f t="shared" si="1"/>
+        <v>4250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G4"/>
+    <mergeCell ref="B5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>